--- a/data/UI_HomePage.xlsx
+++ b/data/UI_HomePage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>SystemName</t>
   </si>
@@ -36,36 +36,12 @@
     <t>English</t>
   </si>
   <si>
-    <t>Chinese (Traditional)</t>
-  </si>
-  <si>
-    <t>Chinese (Simplified)</t>
-  </si>
-  <si>
     <t>French</t>
   </si>
   <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>Italian</t>
-  </si>
-  <si>
     <t>Japanese</t>
   </si>
   <si>
-    <t>Korean</t>
-  </si>
-  <si>
-    <t>Portuguese</t>
-  </si>
-  <si>
-    <t>Spanish</t>
-  </si>
-  <si>
-    <t>Please Select</t>
-  </si>
-  <si>
     <t>Quote Complete</t>
   </si>
   <si>
@@ -82,6 +58,9 @@
   </si>
   <si>
     <t>France</t>
+  </si>
+  <si>
+    <t>Please Select One</t>
   </si>
 </sst>
 </file>
@@ -430,7 +409,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,10 +442,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -474,10 +453,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -485,52 +464,38 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
